--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29751.45671908044</v>
+        <v>29751.45671908043</v>
       </c>
     </row>
     <row r="7">
@@ -26317,10 +26319,10 @@
         <v>29101.36365410268</v>
       </c>
       <c r="D2" t="n">
-        <v>29101.36365410268</v>
+        <v>29101.36365410267</v>
       </c>
       <c r="E2" t="n">
-        <v>29101.36365410268</v>
+        <v>29101.36365410267</v>
       </c>
       <c r="F2" t="n">
         <v>29101.36365410268</v>
@@ -26332,7 +26334,7 @@
         <v>29101.36365410268</v>
       </c>
       <c r="I2" t="n">
-        <v>29101.36365410268</v>
+        <v>29101.36365410269</v>
       </c>
       <c r="J2" t="n">
         <v>29101.36365410268</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19076.91817294866</v>
+        <v>-19076.91817294865</v>
       </c>
       <c r="C6" t="n">
         <v>-19076.91817294865</v>
       </c>
       <c r="D6" t="n">
-        <v>-19076.91817294865</v>
+        <v>-19076.91817294867</v>
       </c>
       <c r="E6" t="n">
-        <v>14550.68182705134</v>
+        <v>14550.68182705133</v>
       </c>
       <c r="F6" t="n">
         <v>14550.68182705134</v>
@@ -26540,7 +26542,7 @@
         <v>14550.68182705134</v>
       </c>
       <c r="I6" t="n">
-        <v>14550.68182705134</v>
+        <v>14550.68182705135</v>
       </c>
       <c r="J6" t="n">
         <v>14550.68182705134</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29751.45671908043</v>
+        <v>18152.61275720983</v>
       </c>
     </row>
     <row r="7">
@@ -26319,10 +26319,10 @@
         <v>29101.36365410268</v>
       </c>
       <c r="D2" t="n">
-        <v>29101.36365410267</v>
+        <v>29101.36365410268</v>
       </c>
       <c r="E2" t="n">
-        <v>29101.36365410267</v>
+        <v>29101.36365410268</v>
       </c>
       <c r="F2" t="n">
         <v>29101.36365410268</v>
@@ -26334,7 +26334,7 @@
         <v>29101.36365410268</v>
       </c>
       <c r="I2" t="n">
-        <v>29101.36365410269</v>
+        <v>29101.36365410268</v>
       </c>
       <c r="J2" t="n">
         <v>29101.36365410268</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19076.91817294865</v>
+        <v>-20463.23073948904</v>
       </c>
       <c r="C6" t="n">
-        <v>-19076.91817294865</v>
+        <v>-20463.23073948904</v>
       </c>
       <c r="D6" t="n">
-        <v>-19076.91817294867</v>
+        <v>-20463.23073948904</v>
       </c>
       <c r="E6" t="n">
-        <v>14550.68182705133</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="F6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="G6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="H6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="I6" t="n">
-        <v>14550.68182705135</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="J6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="K6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="L6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="M6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="N6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="O6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
       <c r="P6" t="n">
-        <v>14550.68182705134</v>
+        <v>13164.36926051096</v>
       </c>
     </row>
   </sheetData>
